--- a/excel/ficha_fotos.xlsx
+++ b/excel/ficha_fotos.xlsx
@@ -17,13 +17,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +50,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,6 +146,61 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5953125" cy="581025"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3073613" cy="2305210"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,12 +487,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B6:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,7 +505,38 @@
     <col width="1" customWidth="1" min="3" max="3"/>
     <col width="48" customWidth="1" min="4" max="4"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>4.- FICHA FOTOS DEL ITINERARIO DE LA CARRETERA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7"/>
+    <row r="8">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Panel Fotográfico</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="195" customHeight="1">
+      <c r="B10" s="3" t="n"/>
+    </row>
+    <row r="11" ht="45" customHeight="1">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Foto 1: Vista de la carretera - 0+000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>